--- a/information.xlsx
+++ b/information.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lluis\Desktop\Projects\automatic_personal_page\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lluis\Desktop\Projects\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9549AA-9C65-4B3D-8D86-194BA86AA1D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461D7F1C-431D-4C11-811B-B62DBD917992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="1" activeTab="4" xr2:uid="{9CEA0154-E674-4F6E-9626-759C59FC0DAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="1" activeTab="5" xr2:uid="{9CEA0154-E674-4F6E-9626-759C59FC0DAB}"/>
   </bookViews>
   <sheets>
     <sheet name="ABOUT" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="475">
   <si>
     <t>NAME</t>
   </si>
@@ -4345,9 +4345,6 @@
     <t>February 2025</t>
   </si>
   <si>
-    <t>python,jinja2</t>
-  </si>
-  <si>
     <t>GITHUB|https://github.com/lluisg/automatic_personal_page,LINK|https://lluisg.github.io/</t>
   </si>
   <si>
@@ -4364,6 +4361,30 @@
   </si>
   <si>
     <t>jinja2.ico</t>
+  </si>
+  <si>
+    <t>Generation of an easy-to-use executable file that generates a fully functional Portfolio webpage based on an excel database, which can be updated manually.</t>
+  </si>
+  <si>
+    <t>python,jinja2,excel</t>
+  </si>
+  <si>
+    <t>excel</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>excel.ico</t>
+  </si>
+  <si>
+    <t>22B14C</t>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/es-es/microsoft-365/excel</t>
+  </si>
+  <si>
+    <t>auto_portfolio_i.png</t>
   </si>
 </sst>
 </file>
@@ -5290,10 +5311,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C8E406-451F-4477-9E13-55F925726B8C}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5451,19 +5472,19 @@
         <v>93</v>
       </c>
       <c r="B8" t="s">
+        <v>462</v>
+      </c>
+      <c r="C8" t="s">
         <v>463</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>464</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>466</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>465</v>
-      </c>
-      <c r="E8" t="s">
-        <v>467</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -5788,22 +5809,22 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="B25" t="s">
-        <v>291</v>
+        <v>469</v>
       </c>
       <c r="C25" t="s">
-        <v>165</v>
+        <v>470</v>
       </c>
       <c r="D25" t="s">
-        <v>166</v>
+        <v>473</v>
       </c>
       <c r="E25" t="s">
-        <v>167</v>
+        <v>471</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>195</v>
+        <v>472</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -5811,19 +5832,19 @@
         <v>164</v>
       </c>
       <c r="B26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C26" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D26" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -5831,19 +5852,19 @@
         <v>164</v>
       </c>
       <c r="B27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C27" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D27" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E27" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -5851,19 +5872,19 @@
         <v>164</v>
       </c>
       <c r="B28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C28" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -5871,19 +5892,19 @@
         <v>164</v>
       </c>
       <c r="B29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D29" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E29" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -5891,19 +5912,19 @@
         <v>164</v>
       </c>
       <c r="B30" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C30" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D30" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E30" t="s">
-        <v>181</v>
-      </c>
-      <c r="F30" s="3">
-        <v>469141</v>
+        <v>178</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -5911,19 +5932,19 @@
         <v>164</v>
       </c>
       <c r="B31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C31" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D31" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F31" s="3">
-        <v>313131</v>
+        <v>469141</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -5931,19 +5952,19 @@
         <v>164</v>
       </c>
       <c r="B32" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C32" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D32" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E32" t="s">
-        <v>187</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>211</v>
+        <v>183</v>
+      </c>
+      <c r="F32" s="3">
+        <v>313131</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -5951,18 +5972,38 @@
         <v>164</v>
       </c>
       <c r="B33" t="s">
+        <v>298</v>
+      </c>
+      <c r="C33" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33" t="s">
+        <v>188</v>
+      </c>
+      <c r="E33" t="s">
+        <v>187</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>164</v>
+      </c>
+      <c r="B34" t="s">
         <v>299</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>189</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>190</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E34" t="s">
         <v>191</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>408</v>
       </c>
     </row>
@@ -5979,8 +6020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F62B72-F402-45A6-8AE4-4CD1EFC18BAE}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6037,14 +6078,20 @@
       <c r="D2" t="s">
         <v>460</v>
       </c>
+      <c r="E2" t="s">
+        <v>474</v>
+      </c>
       <c r="F2" t="s">
         <v>332</v>
       </c>
       <c r="G2" t="s">
+        <v>468</v>
+      </c>
+      <c r="H2" t="s">
         <v>461</v>
       </c>
-      <c r="H2" t="s">
-        <v>462</v>
+      <c r="I2" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">

--- a/information.xlsx
+++ b/information.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lluis\Desktop\Projects\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461D7F1C-431D-4C11-811B-B62DBD917992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D6E434-2C40-46AF-AD7B-457811420481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="1" activeTab="5" xr2:uid="{9CEA0154-E674-4F6E-9626-759C59FC0DAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="2" activeTab="6" xr2:uid="{9CEA0154-E674-4F6E-9626-759C59FC0DAB}"/>
   </bookViews>
   <sheets>
     <sheet name="ABOUT" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,9 @@
     <sheet name="COURSES" sheetId="5" r:id="rId4"/>
     <sheet name="SKILLS" sheetId="6" r:id="rId5"/>
     <sheet name="PROJECTS" sheetId="2" r:id="rId6"/>
-    <sheet name="EXTRA_INFO" sheetId="10" r:id="rId7"/>
-    <sheet name="LANGUAGES" sheetId="7" r:id="rId8"/>
-    <sheet name="OTHER_INFO" sheetId="8" r:id="rId9"/>
-    <sheet name="CONTACT" sheetId="9" r:id="rId10"/>
+    <sheet name="OTHER" sheetId="8" r:id="rId7"/>
+    <sheet name="CONTACT" sheetId="9" r:id="rId8"/>
+    <sheet name="CUSTOM" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="475">
   <si>
     <t>NAME</t>
   </si>
@@ -4878,41 +4877,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8CA0F9-1E61-4B6E-A4DD-4A89ECA2E29E}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="65.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7E30F2-8852-41EF-91BA-6B961E690A88}">
   <dimension ref="A1:F4"/>
@@ -6020,7 +5984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F62B72-F402-45A6-8AE4-4CD1EFC18BAE}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -6792,6 +6756,167 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BCBF17-B846-480B-A437-F9769858B36E}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8CA0F9-1E61-4B6E-A4DD-4A89ECA2E29E}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="65.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A37FAC5C-5DFF-412F-A2E6-43E8334D15FC}">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -6985,123 +7110,4 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA618CF-91CC-4817-A466-B6D90C9FF72A}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>226</v>
-      </c>
-      <c r="B4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BCBF17-B846-480B-A437-F9769858B36E}">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/information.xlsx
+++ b/information.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lluis\Desktop\Projects\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D6E434-2C40-46AF-AD7B-457811420481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D071B9FF-64B9-4DE1-8461-E5D273791FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="2" activeTab="6" xr2:uid="{9CEA0154-E674-4F6E-9626-759C59FC0DAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="2" activeTab="5" xr2:uid="{9CEA0154-E674-4F6E-9626-759C59FC0DAB}"/>
   </bookViews>
   <sheets>
     <sheet name="ABOUT" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="481">
   <si>
     <t>NAME</t>
   </si>
@@ -4384,6 +4384,24 @@
   </si>
   <si>
     <t>auto_portfolio_i.png</t>
+  </si>
+  <si>
+    <t>sell_furniture.png</t>
+  </si>
+  <si>
+    <t>June 2025</t>
+  </si>
+  <si>
+    <t>LINK|https://home-items-lluis.onrender.com/</t>
+  </si>
+  <si>
+    <t>Furniture Sale Showcase Website</t>
+  </si>
+  <si>
+    <t>sell_furniture_i.png</t>
+  </si>
+  <si>
+    <t>I created a small, responsive website to showcase furniture and items we planned to sell before moving out of an apartment. &lt;br/&gt; The site includes an image carousel for each item, item details like title and price, and a navigation system to browse through the collection. &lt;br/&gt; For privacy reasons, the images are not public, and the GitHub repository will remain private.</t>
   </si>
 </sst>
 </file>
@@ -5982,10 +6000,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F62B72-F402-45A6-8AE4-4CD1EFC18BAE}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6031,222 +6049,222 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B2" t="s">
         <v>303</v>
       </c>
       <c r="C2" t="s">
-        <v>443</v>
+        <v>475</v>
       </c>
       <c r="D2" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="E2" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="F2" t="s">
-        <v>332</v>
+        <v>253</v>
       </c>
       <c r="G2" t="s">
-        <v>468</v>
+        <v>348</v>
       </c>
       <c r="H2" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="I2" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>262</v>
+        <v>459</v>
       </c>
       <c r="B3" t="s">
-        <v>215</v>
+        <v>303</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>443</v>
       </c>
       <c r="D3" t="s">
-        <v>217</v>
+        <v>460</v>
       </c>
       <c r="E3" t="s">
-        <v>442</v>
+        <v>474</v>
       </c>
       <c r="F3" t="s">
         <v>332</v>
       </c>
       <c r="G3" t="s">
-        <v>271</v>
+        <v>468</v>
       </c>
       <c r="H3" t="s">
-        <v>412</v>
+        <v>461</v>
       </c>
       <c r="I3" t="s">
-        <v>301</v>
+        <v>467</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>302</v>
+        <v>262</v>
       </c>
       <c r="B4" t="s">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="C4" t="s">
-        <v>341</v>
+        <v>219</v>
       </c>
       <c r="D4" t="s">
-        <v>339</v>
+        <v>217</v>
       </c>
       <c r="E4" t="s">
-        <v>341</v>
+        <v>442</v>
       </c>
       <c r="F4" t="s">
-        <v>253</v>
+        <v>332</v>
       </c>
       <c r="G4" t="s">
-        <v>342</v>
+        <v>271</v>
       </c>
       <c r="H4" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="I4" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B5" t="s">
         <v>303</v>
       </c>
       <c r="C5" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D5" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="E5" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F5" t="s">
         <v>253</v>
       </c>
       <c r="G5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="H5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I5" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B6" t="s">
         <v>303</v>
       </c>
       <c r="C6" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D6" t="s">
         <v>346</v>
       </c>
       <c r="E6" t="s">
-        <v>453</v>
+        <v>347</v>
       </c>
       <c r="F6" t="s">
-        <v>333</v>
+        <v>253</v>
       </c>
       <c r="G6" t="s">
         <v>348</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>423</v>
+      <c r="H6" t="s">
+        <v>422</v>
       </c>
       <c r="I6" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>305</v>
       </c>
       <c r="B7" t="s">
         <v>303</v>
       </c>
       <c r="C7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="E7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F7" t="s">
-        <v>253</v>
+        <v>333</v>
       </c>
       <c r="G7" t="s">
         <v>348</v>
       </c>
-      <c r="H7" t="s">
-        <v>424</v>
+      <c r="H7" s="2" t="s">
+        <v>423</v>
       </c>
       <c r="I7" t="s">
-        <v>437</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>306</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
         <v>303</v>
       </c>
       <c r="C8" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F8" t="s">
         <v>253</v>
       </c>
       <c r="G8" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="H8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I8" t="s">
-        <v>355</v>
+        <v>437</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B9" t="s">
         <v>303</v>
       </c>
       <c r="C9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D9" t="s">
         <v>353</v>
       </c>
       <c r="E9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F9" t="s">
         <v>253</v>
@@ -6255,287 +6273,290 @@
         <v>342</v>
       </c>
       <c r="H9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I9" t="s">
-        <v>436</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B10" t="s">
         <v>303</v>
       </c>
       <c r="C10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D10" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E10" t="s">
-        <v>358</v>
+        <v>456</v>
       </c>
       <c r="F10" t="s">
-        <v>333</v>
+        <v>253</v>
       </c>
       <c r="G10" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="H10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I10" t="s">
-        <v>362</v>
+        <v>436</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B11" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C11" t="s">
-        <v>444</v>
+        <v>358</v>
       </c>
       <c r="D11" t="s">
-        <v>363</v>
+        <v>357</v>
+      </c>
+      <c r="E11" t="s">
+        <v>358</v>
       </c>
       <c r="F11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G11" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H11" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="I11" t="s">
-        <v>438</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D12" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F12" t="s">
-        <v>222</v>
+        <v>334</v>
       </c>
       <c r="G12" t="s">
-        <v>271</v>
+        <v>364</v>
       </c>
       <c r="H12" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="I12" t="s">
-        <v>365</v>
+        <v>438</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>435</v>
+        <v>311</v>
       </c>
       <c r="B13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F13" t="s">
-        <v>335</v>
+        <v>222</v>
       </c>
       <c r="G13" t="s">
         <v>271</v>
       </c>
       <c r="H13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I13" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>314</v>
+        <v>435</v>
       </c>
       <c r="B14" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D14" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G14" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="H14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B15" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="C15" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="D15" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F15" t="s">
-        <v>253</v>
+        <v>336</v>
       </c>
       <c r="G15" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I15" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B16" t="s">
         <v>303</v>
       </c>
       <c r="C16" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D16" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F16" t="s">
-        <v>337</v>
+        <v>253</v>
       </c>
       <c r="G16" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="H16" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I16" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B17" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C17" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D17" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F17" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G17" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="H17" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="I17" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B18" t="s">
         <v>310</v>
       </c>
       <c r="C18" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D18" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F18" t="s">
         <v>335</v>
       </c>
       <c r="G18" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H18" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="I18" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B19" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="C19" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D19" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F19" t="s">
-        <v>222</v>
+        <v>335</v>
       </c>
       <c r="G19" t="s">
-        <v>271</v>
+        <v>383</v>
       </c>
       <c r="H19" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I19" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B20" t="s">
-        <v>215</v>
+        <v>321</v>
       </c>
       <c r="C20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D20" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F20" t="s">
         <v>222</v>
@@ -6544,176 +6565,199 @@
         <v>271</v>
       </c>
       <c r="H20" t="s">
-        <v>458</v>
+        <v>415</v>
       </c>
       <c r="I20" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B21" t="s">
-        <v>324</v>
+        <v>215</v>
       </c>
       <c r="C21" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D21" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F21" t="s">
         <v>222</v>
       </c>
       <c r="G21" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="H21" t="s">
-        <v>416</v>
+        <v>458</v>
       </c>
       <c r="I21" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B22" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="C22" t="s">
-        <v>391</v>
+        <v>452</v>
       </c>
       <c r="D22" t="s">
-        <v>392</v>
-      </c>
-      <c r="E22" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F22" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="G22" t="s">
-        <v>393</v>
+        <v>276</v>
       </c>
       <c r="H22" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="I22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B23" t="s">
         <v>303</v>
       </c>
       <c r="C23" t="s">
-        <v>440</v>
+        <v>391</v>
       </c>
       <c r="D23" t="s">
-        <v>398</v>
+        <v>392</v>
+      </c>
+      <c r="E23" t="s">
+        <v>391</v>
       </c>
       <c r="F23" t="s">
         <v>253</v>
       </c>
       <c r="G23" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H23" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I23" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B24" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C24" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D24" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F24" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G24" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="H24" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="I24" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B25" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C25" t="s">
-        <v>403</v>
+        <v>439</v>
       </c>
       <c r="D25" t="s">
-        <v>402</v>
-      </c>
-      <c r="E25" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F25" t="s">
         <v>252</v>
       </c>
       <c r="G25" t="s">
-        <v>271</v>
+        <v>399</v>
       </c>
       <c r="H25" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="I25" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>328</v>
+      </c>
+      <c r="B26" t="s">
+        <v>313</v>
+      </c>
+      <c r="C26" t="s">
+        <v>403</v>
+      </c>
+      <c r="D26" t="s">
+        <v>402</v>
+      </c>
+      <c r="E26" t="s">
+        <v>403</v>
+      </c>
+      <c r="F26" t="s">
+        <v>252</v>
+      </c>
+      <c r="G26" t="s">
+        <v>271</v>
+      </c>
+      <c r="H26" t="s">
+        <v>417</v>
+      </c>
+      <c r="I26" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>330</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>329</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>457</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>404</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F27" t="s">
         <v>338</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G27" t="s">
         <v>405</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H27" t="s">
         <v>418</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I27" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E29" s="1"/>
@@ -6744,11 +6788,14 @@
     </row>
     <row r="38" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E39" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H6" r:id="rId1" display="https://github.com/lluisg/fontvisualizer" xr:uid="{4E0AF6C4-0111-4171-962F-87619946D9FF}"/>
+    <hyperlink ref="H7" r:id="rId1" display="https://github.com/lluisg/fontvisualizer" xr:uid="{4E0AF6C4-0111-4171-962F-87619946D9FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -6759,7 +6806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BCBF17-B846-480B-A437-F9769858B36E}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
